--- a/rawdata/colnames12_v2.xlsx
+++ b/rawdata/colnames12_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1314D4-6243-4076-84F5-72861B4C1A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78243CC-8B32-4B9E-96CE-251D61126340}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
   <si>
     <t>target</t>
   </si>
@@ -118,9 +118,6 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>#228B24</t>
-  </si>
-  <si>
     <t>11.7</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>6.5</t>
-  </si>
-  <si>
-    <t>#228B23</t>
   </si>
   <si>
     <t>11.5</t>
@@ -598,11 +592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -635,902 +632,870 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2">
-        <v>5.3049151920000002</v>
+        <v>2.4774371940000002</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0416481950000001</v>
+        <v>1.5862905700000001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
-        <v>4.991971865</v>
+        <v>2.4774371940000002</v>
       </c>
       <c r="C3" s="2">
-        <v>0.45641013000000002</v>
+        <v>1.5862905700000001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2">
-        <v>3.8845309800000001</v>
+        <v>3.4123319580000002</v>
       </c>
       <c r="C4" s="2">
-        <v>2.682412002</v>
+        <v>5.3674389999999999E-3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2">
-        <v>3.8845309800000001</v>
+        <v>2.7774435959999999</v>
       </c>
       <c r="C5" s="2">
-        <v>2.682412002</v>
+        <v>0.37913298400000001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
-        <v>3.4123319580000002</v>
+        <v>2.7774435959999999</v>
       </c>
       <c r="C6" s="2">
-        <v>5.3674389999999999E-3</v>
+        <v>0.37913298400000001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2">
-        <v>3.2913833389999998</v>
+        <v>2.7774435959999999</v>
       </c>
       <c r="C7" s="2">
-        <v>2.9319600000000002E-4</v>
+        <v>0.37913298400000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
-        <v>3.2913833389999998</v>
+        <v>2.0379838640000001</v>
       </c>
       <c r="C8" s="2">
-        <v>2.9319600000000002E-4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>2.1569164120000002</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2">
-        <v>3.2913833389999998</v>
+        <v>1.865184427</v>
       </c>
       <c r="C9" s="2">
-        <v>2.9319600000000002E-4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2">
-        <v>3.1875172209999998</v>
+        <v>1.865184427</v>
       </c>
       <c r="C10" s="2">
-        <v>6.6899011999999994E-2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2">
-        <v>2.7774435959999999</v>
+        <v>1.865184427</v>
       </c>
       <c r="C11" s="2">
-        <v>0.37913298400000001</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2">
-        <v>2.7774435959999999</v>
+        <v>1.865184427</v>
       </c>
       <c r="C12" s="2">
-        <v>0.37913298400000001</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2">
-        <v>2.7774435959999999</v>
+        <v>1.534484695</v>
       </c>
       <c r="C13" s="2">
-        <v>0.37913298400000001</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0.42976371200000002</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2">
-        <v>2.612482553</v>
+        <v>1.534484695</v>
       </c>
       <c r="C14" s="2">
-        <v>1.894178328</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>0.42976371200000002</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
-        <v>2.4980892809999999</v>
+        <v>1.4814047749999999</v>
       </c>
       <c r="C15" s="2">
-        <v>0.31883444999999999</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>1.687199329</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
-        <v>2.4774371940000002</v>
+        <v>1.3779183150000001</v>
       </c>
       <c r="C16" s="2">
-        <v>1.5862905700000001</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>1.0431747259999999</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
-        <v>2.4774371940000002</v>
+        <v>1.3779183150000001</v>
       </c>
       <c r="C17" s="2">
-        <v>1.5862905700000001</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>1.0431747259999999</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3779183150000001</v>
       </c>
       <c r="C18" s="2">
-        <v>2.9779800089999999</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1.0431747259999999</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3030720309999999</v>
       </c>
       <c r="C19" s="2">
-        <v>2.9779800089999999</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>0.10191048</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3030720309999999</v>
       </c>
       <c r="C20" s="2">
-        <v>2.9779800089999999</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>0.10191048</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3030720309999999</v>
       </c>
       <c r="C21" s="2">
-        <v>2.9779800089999999</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>0.10191048</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
-        <v>2.0793733310000002</v>
+        <v>0.96124113799999999</v>
       </c>
       <c r="C22" s="2">
-        <v>2.9779800089999999</v>
+        <v>1.425396664</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
-        <v>2.0793733310000002</v>
+        <v>0.44199845599999998</v>
       </c>
       <c r="C23" s="2">
-        <v>2.9779800089999999</v>
+        <v>1.7977048179999999</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2">
-        <v>2.0379838640000001</v>
+        <v>0.37798177700000002</v>
       </c>
       <c r="C24" s="2">
-        <v>2.1569164120000002</v>
+        <v>1.226799247</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
-        <v>1.865184427</v>
+        <v>0.24676114399999999</v>
       </c>
       <c r="C25" s="2">
-        <v>0.42425585799999999</v>
+        <v>1.2641550500000001</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
-        <v>1.865184427</v>
+        <v>0.24676114399999999</v>
       </c>
       <c r="C26" s="2">
-        <v>0.42425585799999999</v>
+        <v>1.2641550500000001</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>1.865184427</v>
+        <v>9.0930825000000007E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>0.42425585799999999</v>
+        <v>2.2200334970000002</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>1.865184427</v>
+        <v>9.0930825000000007E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.42425585799999999</v>
+        <v>2.2200334970000002</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>1.534484695</v>
+        <v>3.8834189999999999E-3</v>
       </c>
       <c r="C29" s="2">
-        <v>0.42976371200000002</v>
+        <v>1.81042989</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
-        <v>1.534484695</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C30" s="2">
-        <v>0.42976371200000002</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
-        <v>1.4814047749999999</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C31" s="2">
-        <v>1.687199329</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
-        <v>1.3779183150000001</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C32" s="2">
-        <v>1.0431747259999999</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
-        <v>1.3779183150000001</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C33" s="2">
-        <v>1.0431747259999999</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2">
-        <v>1.3779183150000001</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C34" s="2">
-        <v>1.0431747259999999</v>
+        <v>2.9779800089999999</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
-        <v>1.3030720309999999</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C35" s="2">
-        <v>0.10191048</v>
+        <v>2.9779800089999999</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
-        <v>1.3030720309999999</v>
+        <v>0.87586802799999997</v>
       </c>
       <c r="C36" s="2">
-        <v>0.10191048</v>
+        <v>3.6017965959999998</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2">
-        <v>1.3030720309999999</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C37" s="2">
-        <v>0.10191048</v>
+        <v>3.153406607</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2">
-        <v>0.96124113799999999</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C38" s="2">
-        <v>1.425396664</v>
+        <v>3.153406607</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
-        <v>0.87586802799999997</v>
+        <v>9.0930825000000007E-2</v>
       </c>
       <c r="C39" s="2">
-        <v>3.6017965959999998</v>
+        <v>2.2200334970000002</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1549,353 +1514,385 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2">
-        <v>0.73358843100000004</v>
+        <v>3.2913833389999998</v>
       </c>
       <c r="C40" s="2">
-        <v>3.9046864710000002</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>2.9319600000000002E-4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2">
-        <v>0.44199845599999998</v>
+        <v>3.2913833389999998</v>
       </c>
       <c r="C41" s="2">
-        <v>1.7977048179999999</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+        <v>2.9319600000000002E-4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2">
-        <v>0.38045388000000002</v>
+        <v>3.2913833389999998</v>
       </c>
       <c r="C42" s="2">
-        <v>3.153406607</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>2.9319600000000002E-4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2">
-        <v>0.38045388000000002</v>
+        <v>3.1875172209999998</v>
       </c>
       <c r="C43" s="2">
-        <v>3.153406607</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>6.6899011999999994E-2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2">
-        <v>0.38045388000000002</v>
+        <v>2.612482553</v>
       </c>
       <c r="C44" s="2">
-        <v>3.153406607</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>1.894178328</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2">
-        <v>0.38045388000000002</v>
+        <v>2.4980892809999999</v>
       </c>
       <c r="C45" s="2">
-        <v>3.153406607</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>0.31883444999999999</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>0.38045388000000002</v>
+        <v>5.3049151920000002</v>
       </c>
       <c r="C46" s="2">
-        <v>3.153406607</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1.0416481950000001</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>0.37798177700000002</v>
+        <v>4.991971865</v>
       </c>
       <c r="C47" s="2">
-        <v>1.226799247</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+        <v>0.45641013000000002</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3281056</v>
+        <v>3.8845309800000001</v>
       </c>
       <c r="C48" s="2">
-        <v>3.3586247450000002</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+        <v>2.682412002</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B49" s="2">
-        <v>0.24676114399999999</v>
+        <v>3.8845309800000001</v>
       </c>
       <c r="C49" s="2">
-        <v>1.2641550500000001</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+        <v>2.682412002</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2">
-        <v>0.24676114399999999</v>
+        <v>0.73358843100000004</v>
       </c>
       <c r="C50" s="2">
-        <v>1.2641550500000001</v>
+        <v>3.9046864710000002</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2">
-        <v>9.0930825000000007E-2</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C51" s="2">
-        <v>2.2200334970000002</v>
+        <v>3.153406607</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2">
-        <v>9.0930825000000007E-2</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C52" s="2">
-        <v>2.2200334970000002</v>
+        <v>3.153406607</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2">
-        <v>9.0930825000000007E-2</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C53" s="2">
-        <v>2.2200334970000002</v>
+        <v>3.153406607</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2">
-        <v>3.8834189999999999E-3</v>
+        <v>0.3281056</v>
       </c>
       <c r="C54" s="2">
-        <v>1.81042989</v>
+        <v>3.3586247450000002</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H54" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -1950,7 +1947,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:I56">
-    <sortCondition descending="1" ref="B1"/>
+    <sortCondition ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rawdata/colnames12_v2.xlsx
+++ b/rawdata/colnames12_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78243CC-8B32-4B9E-96CE-251D61126340}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2940BB-1A8F-4806-8B75-AB3F1D36F522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="87">
   <si>
     <t>target</t>
   </si>
@@ -254,6 +254,33 @@
   </si>
   <si>
     <t>15.5</t>
+  </si>
+  <si>
+    <t>Type_bar22</t>
+  </si>
+  <si>
+    <t>Color_bar22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human </t>
+  </si>
+  <si>
+    <t>Ecosystem</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Type_CA2</t>
+  </si>
+  <si>
+    <t>Color_CA2</t>
+  </si>
+  <si>
+    <t>TerrCoastMar</t>
+  </si>
+  <si>
+    <t>#E1BC84</t>
   </si>
 </sst>
 </file>
@@ -590,18 +617,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,127 +654,187 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2">
-        <v>2.4774371940000002</v>
+        <v>5.3049151920000002</v>
       </c>
       <c r="C2" s="2">
-        <v>1.5862905700000001</v>
+        <v>1.0416481950000001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
-        <v>2.4774371940000002</v>
+        <v>4.991971865</v>
       </c>
       <c r="C3" s="2">
-        <v>1.5862905700000001</v>
+        <v>0.45641013000000002</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.8845309800000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.682412002</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.8845309800000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.682412002</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>3.4123319580000002</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>5.3674389999999999E-3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.7774435959999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.37913298400000001</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.7774435959999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.37913298400000001</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>65</v>
@@ -748,754 +844,1154 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2">
-        <v>2.7774435959999999</v>
+        <v>3.2913833389999998</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37913298400000001</v>
+        <v>2.9319600000000002E-4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0379838640000001</v>
+        <v>3.2913833389999998</v>
       </c>
       <c r="C8" s="2">
-        <v>2.1569164120000002</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>2.9319600000000002E-4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2">
-        <v>1.865184427</v>
+        <v>3.2913833389999998</v>
       </c>
       <c r="C9" s="2">
-        <v>0.42425585799999999</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>2.9319600000000002E-4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2">
-        <v>1.865184427</v>
+        <v>3.1875172209999998</v>
       </c>
       <c r="C10" s="2">
-        <v>0.42425585799999999</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>6.6899011999999994E-2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2">
-        <v>1.865184427</v>
+        <v>2.7774435959999999</v>
       </c>
       <c r="C11" s="2">
-        <v>0.42425585799999999</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>0.37913298400000001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2">
-        <v>1.865184427</v>
+        <v>2.7774435959999999</v>
       </c>
       <c r="C12" s="2">
-        <v>0.42425585799999999</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>0.37913298400000001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2">
-        <v>1.534484695</v>
+        <v>2.7774435959999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.42976371200000002</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>0.37913298400000001</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>1.534484695</v>
+        <v>2.612482553</v>
       </c>
       <c r="C14" s="2">
-        <v>0.42976371200000002</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>1.894178328</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
-        <v>1.4814047749999999</v>
+        <v>2.4980892809999999</v>
       </c>
       <c r="C15" s="2">
-        <v>1.687199329</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>0.31883444999999999</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
-        <v>1.3779183150000001</v>
+        <v>2.4774371940000002</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0431747259999999</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>1.5862905700000001</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
-        <v>1.3779183150000001</v>
+        <v>2.4774371940000002</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0431747259999999</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>1.5862905700000001</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>1.3779183150000001</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C18" s="2">
-        <v>1.0431747259999999</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1.3030720309999999</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C19" s="2">
-        <v>0.10191048</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1.3030720309999999</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10191048</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>1.3030720309999999</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10191048</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>0.96124113799999999</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C22" s="2">
-        <v>1.425396664</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>0.44199845599999998</v>
+        <v>2.0793733310000002</v>
       </c>
       <c r="C23" s="2">
-        <v>1.7977048179999999</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>2.9779800089999999</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
-        <v>0.37798177700000002</v>
+        <v>2.0379838640000001</v>
       </c>
       <c r="C24" s="2">
-        <v>1.226799247</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>2.1569164120000002</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
-        <v>0.24676114399999999</v>
+        <v>1.865184427</v>
       </c>
       <c r="C25" s="2">
-        <v>1.2641550500000001</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2">
-        <v>0.24676114399999999</v>
+        <v>1.865184427</v>
       </c>
       <c r="C26" s="2">
-        <v>1.2641550500000001</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2">
-        <v>9.0930825000000007E-2</v>
+        <v>1.865184427</v>
       </c>
       <c r="C27" s="2">
-        <v>2.2200334970000002</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2">
-        <v>9.0930825000000007E-2</v>
+        <v>1.865184427</v>
       </c>
       <c r="C28" s="2">
-        <v>2.2200334970000002</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>0.42425585799999999</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2">
-        <v>3.8834189999999999E-3</v>
+        <v>1.534484695</v>
       </c>
       <c r="C29" s="2">
-        <v>1.81042989</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>0.42976371200000002</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.534484695</v>
       </c>
       <c r="C30" s="2">
-        <v>2.9779800089999999</v>
+        <v>0.42976371200000002</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.4814047749999999</v>
       </c>
       <c r="C31" s="2">
-        <v>2.9779800089999999</v>
+        <v>1.687199329</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3779183150000001</v>
       </c>
       <c r="C32" s="2">
-        <v>2.9779800089999999</v>
+        <v>1.0431747259999999</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3779183150000001</v>
       </c>
       <c r="C33" s="2">
-        <v>2.9779800089999999</v>
+        <v>1.0431747259999999</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3779183150000001</v>
       </c>
       <c r="C34" s="2">
-        <v>2.9779800089999999</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0431747259999999</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2">
-        <v>2.0793733310000002</v>
+        <v>1.3030720309999999</v>
       </c>
       <c r="C35" s="2">
-        <v>2.9779800089999999</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.10191048</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2">
-        <v>0.87586802799999997</v>
+        <v>1.3030720309999999</v>
       </c>
       <c r="C36" s="2">
-        <v>3.6017965959999998</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.10191048</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2">
-        <v>0.38045388000000002</v>
+        <v>1.3030720309999999</v>
       </c>
       <c r="C37" s="2">
-        <v>3.153406607</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.10191048</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>0.38045388000000002</v>
+        <v>0.96124113799999999</v>
       </c>
       <c r="C38" s="2">
-        <v>3.153406607</v>
+        <v>1.425396664</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2">
-        <v>9.0930825000000007E-2</v>
+        <v>0.87586802799999997</v>
       </c>
       <c r="C39" s="2">
-        <v>2.2200334970000002</v>
+        <v>3.6017965959999998</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1506,396 +2002,556 @@
         <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2">
-        <v>3.2913833389999998</v>
+        <v>0.73358843100000004</v>
       </c>
       <c r="C40" s="2">
-        <v>2.9319600000000002E-4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+        <v>3.9046864710000002</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H40" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>3.2913833389999998</v>
+        <v>0.44199845599999998</v>
       </c>
       <c r="C41" s="2">
-        <v>2.9319600000000002E-4</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>1.7977048179999999</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2">
-        <v>3.2913833389999998</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C42" s="2">
-        <v>2.9319600000000002E-4</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+        <v>3.153406607</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2">
-        <v>3.1875172209999998</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C43" s="2">
-        <v>6.6899011999999994E-2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+        <v>3.153406607</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2">
-        <v>2.612482553</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C44" s="2">
-        <v>1.894178328</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+        <v>3.153406607</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B45" s="2">
-        <v>2.4980892809999999</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C45" s="2">
-        <v>0.31883444999999999</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+        <v>3.153406607</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2">
-        <v>5.3049151920000002</v>
+        <v>0.38045388000000002</v>
       </c>
       <c r="C46" s="2">
-        <v>1.0416481950000001</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+        <v>3.153406607</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H46" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>4.991971865</v>
+        <v>0.37798177700000002</v>
       </c>
       <c r="C47" s="2">
-        <v>0.45641013000000002</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>1.226799247</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2">
-        <v>3.8845309800000001</v>
+        <v>0.3281056</v>
       </c>
       <c r="C48" s="2">
-        <v>2.682412002</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>3.3586247450000002</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>3.8845309800000001</v>
+        <v>0.24676114399999999</v>
       </c>
       <c r="C49" s="2">
-        <v>2.682412002</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1.2641550500000001</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>0.73358843100000004</v>
+        <v>0.24676114399999999</v>
       </c>
       <c r="C50" s="2">
-        <v>3.9046864710000002</v>
+        <v>1.2641550500000001</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2">
-        <v>0.38045388000000002</v>
+        <v>9.0930825000000007E-2</v>
       </c>
       <c r="C51" s="2">
-        <v>3.153406607</v>
+        <v>2.2200334970000002</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2">
-        <v>0.38045388000000002</v>
+        <v>9.0930825000000007E-2</v>
       </c>
       <c r="C52" s="2">
-        <v>3.153406607</v>
+        <v>2.2200334970000002</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2">
-        <v>0.38045388000000002</v>
+        <v>9.0930825000000007E-2</v>
       </c>
       <c r="C53" s="2">
-        <v>3.153406607</v>
+        <v>2.2200334970000002</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3281056</v>
+        <v>3.8834189999999999E-3</v>
       </c>
       <c r="C54" s="2">
-        <v>3.3586247450000002</v>
+        <v>1.81042989</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -1914,13 +2570,25 @@
         <v>11</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -1939,16 +2607,29 @@
         <v>11</v>
       </c>
       <c r="H56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="K56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I56">
-    <sortCondition ref="H1"/>
+  <sortState ref="A2:M56">
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rawdata/colnames12_v2.xlsx
+++ b/rawdata/colnames12_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2940BB-1A8F-4806-8B75-AB3F1D36F522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5B3A2A-F1D5-4F10-91E6-42806FF5DFD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,15 +262,6 @@
     <t>Color_bar22</t>
   </si>
   <si>
-    <t xml:space="preserve">Human </t>
-  </si>
-  <si>
-    <t>Ecosystem</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>Type_CA2</t>
   </si>
   <si>
@@ -281,6 +272,15 @@
   </si>
   <si>
     <t>#E1BC84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social justice </t>
+  </si>
+  <si>
+    <t>Social justice</t>
+  </si>
+  <si>
+    <t>Environmental justice</t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
@@ -1109,7 +1109,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
@@ -1179,7 +1179,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
@@ -1216,7 +1216,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>16</v>
@@ -1257,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>16</v>
@@ -1298,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>16</v>
@@ -1310,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>16</v>
@@ -1339,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>16</v>
@@ -1351,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>16</v>
@@ -1380,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>16</v>
@@ -1392,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>16</v>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>11</v>
@@ -1433,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>11</v>
@@ -1462,7 +1462,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>11</v>
@@ -1474,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>11</v>
@@ -1499,7 +1499,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
@@ -1511,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>16</v>
@@ -1528,10 +1528,10 @@
         <v>0.42425585799999999</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1544,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1561,10 +1561,10 @@
         <v>0.42425585799999999</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1577,10 +1577,10 @@
         <v>35</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1594,10 +1594,10 @@
         <v>0.42425585799999999</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1610,10 +1610,10 @@
         <v>35</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1627,10 +1627,10 @@
         <v>0.42425585799999999</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1643,10 +1643,10 @@
         <v>35</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1734,7 +1734,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>16</v>
@@ -1746,7 +1746,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>16</v>
@@ -1862,10 +1862,10 @@
         <v>0.10191048</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1878,10 +1878,10 @@
         <v>35</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1895,10 +1895,10 @@
         <v>0.10191048</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1911,10 +1911,10 @@
         <v>35</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1928,10 +1928,10 @@
         <v>0.10191048</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1944,10 +1944,10 @@
         <v>35</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>16</v>
@@ -1977,7 +1977,7 @@
         <v>35</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>16</v>
@@ -2002,7 +2002,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>16</v>
@@ -2014,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>16</v>
@@ -2039,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>11</v>
@@ -2051,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>11</v>
@@ -2072,7 +2072,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
@@ -2084,7 +2084,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>16</v>
@@ -2109,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>11</v>
@@ -2121,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>11</v>
@@ -2146,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>11</v>
@@ -2158,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>11</v>
@@ -2183,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>11</v>
@@ -2195,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>11</v>
@@ -2220,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>11</v>
@@ -2232,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>11</v>
@@ -2257,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>11</v>
@@ -2269,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>11</v>
@@ -2290,7 +2290,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>11</v>
@@ -2302,7 +2302,7 @@
         <v>35</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>11</v>
@@ -2327,7 +2327,7 @@
         <v>11</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>11</v>
@@ -2339,7 +2339,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>11</v>
@@ -2360,7 +2360,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>11</v>
@@ -2372,7 +2372,7 @@
         <v>35</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>11</v>
@@ -2393,7 +2393,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>11</v>
@@ -2405,7 +2405,7 @@
         <v>35</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>11</v>
@@ -2430,7 +2430,7 @@
         <v>35</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>11</v>
@@ -2442,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>11</v>
@@ -2463,7 +2463,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>11</v>
@@ -2475,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>11</v>
@@ -2500,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>11</v>
@@ -2512,7 +2512,7 @@
         <v>16</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>11</v>
@@ -2533,7 +2533,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>11</v>
@@ -2545,7 +2545,7 @@
         <v>35</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>11</v>
@@ -2570,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>11</v>
@@ -2582,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>11</v>
@@ -2607,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>11</v>
@@ -2619,7 +2619,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>11</v>

--- a/rawdata/colnames12_v2.xlsx
+++ b/rawdata/colnames12_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5B3A2A-F1D5-4F10-91E6-42806FF5DFD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9EE04-543C-4C37-B097-890BF45BF74D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
